--- a/public/phu-lieu.xlsx
+++ b/public/phu-lieu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>NGÀY</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>color</t>
-  </si>
-  <si>
-    <t>cuộn</t>
   </si>
   <si>
     <t>met</t>
@@ -454,7 +451,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,7 +492,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>8</v>
@@ -509,7 +506,7 @@
         <v>45555</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6">
         <v>8666</v>
@@ -530,7 +527,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -541,7 +538,7 @@
         <v>45556</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6">
         <v>1340</v>
@@ -559,10 +556,10 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>200</v>
@@ -573,7 +570,7 @@
         <v>45557</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6">
         <v>4544</v>
@@ -591,10 +588,10 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>100</v>

--- a/public/phu-lieu.xlsx
+++ b/public/phu-lieu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>NGÀY</t>
   </si>
@@ -56,12 +56,6 @@
     <t>GHI CHÚ</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
     <t>Dây kéo</t>
   </si>
   <si>
@@ -105,6 +99,15 @@
   </si>
   <si>
     <t>R49372A101</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>8</v>
@@ -506,28 +509,28 @@
         <v>45555</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6">
         <v>8666</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3">
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -538,28 +541,28 @@
         <v>45556</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6">
         <v>1340</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>200</v>
@@ -570,28 +573,28 @@
         <v>45557</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6">
         <v>4544</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="3">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>100</v>
@@ -600,7 +603,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"01,02,03,04,05,06,07,08,09,10,11,12"</formula1>
+      <formula1>"A,B,C,D,E,F,G,H,I,J,K,L"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/phu-lieu.xlsx
+++ b/public/phu-lieu.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/public/phu-lieu.xlsx
+++ b/public/phu-lieu.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,7 +603,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"A,B,C,D,E,F,G,H,I,J,K,L"</formula1>
+      <formula1>"A,B,C,D,E,F,G,H,I,J,K,L,TTH"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/phu-lieu.xlsx
+++ b/public/phu-lieu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\DH\hoatho-dh-laravel\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SongDoan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A98965E-4639-4D1F-8B67-3004C9AA6CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,7 +451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -463,7 +464,7 @@
     <col min="2" max="2" width="12.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="6"/>
     <col min="4" max="4" width="8.7265625" style="5"/>
-    <col min="5" max="5" width="8.7265625" style="6"/>
+    <col min="5" max="5" width="15.08984375" style="6" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" style="3"/>
     <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
@@ -602,8 +603,8 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"A,B,C,D,E,F,G,H,I,J,K,L,TTH"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{F51286F6-2006-456C-868B-874992A4E35C}">
+      <formula1>"A,B,C,D,E,F,G,H,I,J,K,L,TTH,CHOKIEM"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
